--- a/bookingSystem/Data/myData.xlsx
+++ b/bookingSystem/Data/myData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OurHomework\bookingSystem\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD171E8F-69F9-40A9-86D3-E43B73E3D408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D872EB-9BC1-4C14-A2C7-E9B00722148B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34286BF3-D490-4712-A00C-D020B6642E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -172,6 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,9 +215,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,184 +543,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5A0D8-F0C3-4B6F-B4B9-AFB065EE437D}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF55850-A307-4EA6-ACA7-EEB5451E01A4}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bookingSystem/Data/myData.xlsx
+++ b/bookingSystem/Data/myData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OurHomework\bookingSystem\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D872EB-9BC1-4C14-A2C7-E9B00722148B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40EDF9E-AA71-44C3-ABAC-92F857252D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34286BF3-D490-4712-A00C-D020B6642E61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{34286BF3-D490-4712-A00C-D020B6642E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -223,9 +223,8 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5A0D8-F0C3-4B6F-B4B9-AFB065EE437D}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -732,55 +731,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF55850-A307-4EA6-ACA7-EEB5451E01A4}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1C128D-FBCA-41F1-9238-E81F6D60D729}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>43894</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>43895</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>43896</v>
+        <v>43902</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>43897</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+        <v>43904</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>